--- a/Covid-19.xlsx
+++ b/Covid-19.xlsx
@@ -45,7 +45,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -74,18 +74,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,7 +118,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -139,27 +127,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,11 +154,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A188" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C187" activeCellId="0" sqref="C187"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A244" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E254" activeCellId="0" sqref="E254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.86"/>
@@ -219,3442 +191,4164 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>14485</v>
+        <v>14117</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>515</v>
+        <v>585</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="2" t="n">
         <v>44257</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>14523</v>
+        <v>14118</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>614</v>
+        <v>515</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="2" t="n">
         <v>44258</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>14584</v>
+        <v>14119</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="2" t="n">
         <v>44259</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>14395</v>
+        <v>14120</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="2" t="n">
         <v>44260</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>14500</v>
+        <v>14121</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>540</v>
+        <v>635</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="2" t="n">
         <v>44261</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>14597</v>
+        <v>14122</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>606</v>
+        <v>540</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="2" t="n">
         <v>44262</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>15081</v>
+        <v>14123</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>845</v>
+        <v>606</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="2" t="n">
         <v>44263</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>15431</v>
+        <v>14124</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>912</v>
+        <v>845</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="2" t="n">
         <v>44264</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>15519</v>
+        <v>14125</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>1018</v>
+        <v>912</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="2" t="n">
         <v>44265</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>15815</v>
+        <v>14126</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>1051</v>
+        <v>1018</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="2" t="n">
         <v>44266</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>16158</v>
+        <v>14127</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="2" t="n">
         <v>44267</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>16605</v>
+        <v>14128</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>1014</v>
+        <v>1066</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="2" t="n">
         <v>44268</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>16907</v>
+        <v>14129</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>1159</v>
+        <v>1014</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="2" t="n">
         <v>44269</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>17155</v>
+        <v>14130</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>1773</v>
+        <v>1159</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="2" t="n">
         <v>44270</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>17579</v>
+        <v>14131</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>1719</v>
+        <v>1773</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="2" t="n">
         <v>44271</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>18614</v>
+        <v>14132</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>1865</v>
+        <v>1719</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="2" t="n">
         <v>44272</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>19024</v>
+        <v>14133</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>2187</v>
+        <v>1865</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="2" t="n">
         <v>44273</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>19425</v>
+        <v>14134</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>1899</v>
+        <v>2187</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="2" t="n">
         <v>44274</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>19952</v>
+        <v>14135</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>1868</v>
+        <v>1899</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="2" t="n">
         <v>44275</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>20653</v>
+        <v>14136</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>2172</v>
+        <v>1868</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="2" t="n">
         <v>44276</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>21669</v>
+        <v>14137</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>2809</v>
+        <v>2172</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="2" t="n">
         <v>44277</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>22313</v>
+        <v>14138</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3554</v>
+        <v>2809</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="2" t="n">
         <v>44278</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>22774</v>
+        <v>14139</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3567</v>
+        <v>3554</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="2" t="n">
         <v>44279</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>23648</v>
+        <v>14140</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3587</v>
+        <v>3567</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="2" t="n">
         <v>44280</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>24836</v>
+        <v>14141</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3737</v>
+        <v>3587</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="2" t="n">
         <v>44281</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>25883</v>
+        <v>14142</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>3674</v>
+        <v>3737</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="2" t="n">
         <v>44282</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>26229</v>
+        <v>14143</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>3908</v>
+        <v>3674</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="2" t="n">
         <v>44283</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>26470</v>
+        <v>14144</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>5181</v>
+        <v>3908</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="2" t="n">
         <v>44284</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>26565</v>
+        <v>14145</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>5042</v>
+        <v>5181</v>
       </c>
       <c r="E30" s="3" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="2" t="n">
         <v>44285</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>26484</v>
+        <v>14146</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>5358</v>
+        <v>5042</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="2" t="n">
         <v>44286</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>26648</v>
+        <v>14147</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>6469</v>
+        <v>5358</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+      <c r="A33" s="2" t="n">
         <v>44287</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>26950</v>
+        <v>14148</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>6830</v>
+        <v>6469</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="2" t="n">
         <v>44288</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>26567</v>
+        <v>14149</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>5682</v>
+        <v>6830</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+      <c r="A35" s="2" t="n">
         <v>44289</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>27794</v>
+        <v>14150</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>7087</v>
+        <v>5682</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="2" t="n">
         <v>44290</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>28086</v>
+        <v>14151</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>7085</v>
+        <v>7087</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+      <c r="A37" s="2" t="n">
         <v>44291</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>29184</v>
+        <v>14152</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>7213</v>
+        <v>7085</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="2" t="n">
         <v>44292</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>30284</v>
+        <v>14153</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>7626</v>
+        <v>7213</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+      <c r="A39" s="2" t="n">
         <v>44293</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>30998</v>
+        <v>14154</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>6854</v>
+        <v>7626</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="2" t="n">
         <v>44294</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>31328</v>
+        <v>14155</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>7462</v>
+        <v>6854</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+      <c r="A41" s="2" t="n">
         <v>44295</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>31547</v>
+        <v>14156</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>5343</v>
+        <v>7462</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="2" t="n">
         <v>44296</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>31354</v>
+        <v>14157</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>5819</v>
+        <v>5343</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+      <c r="A43" s="2" t="n">
         <v>44297</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>32030</v>
+        <v>14158</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>7201</v>
+        <v>5819</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="2" t="n">
         <v>44298</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>31836</v>
+        <v>14159</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>6028</v>
+        <v>7201</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+      <c r="A45" s="2" t="n">
         <v>44299</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>44</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>30435</v>
+        <v>14160</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>5185</v>
+        <v>6028</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="2" t="n">
         <v>44300</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>45</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>28545</v>
+        <v>14161</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4192</v>
+        <v>5185</v>
       </c>
       <c r="E46" s="3" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+      <c r="A47" s="2" t="n">
         <v>44301</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>46</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>26724</v>
+        <v>14162</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4417</v>
+        <v>4192</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="2" t="n">
         <v>44302</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>47</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>25311</v>
+        <v>14163</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>3473</v>
+        <v>4417</v>
       </c>
       <c r="E48" s="3" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+      <c r="A49" s="2" t="n">
         <v>44303</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>48</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>23886</v>
+        <v>14164</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>3698</v>
+        <v>3473</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="2" t="n">
         <v>44304</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>49</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>22341</v>
+        <v>14165</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4271</v>
+        <v>3698</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+      <c r="A51" s="2" t="n">
         <v>44305</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>50</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>21498</v>
+        <v>14166</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4559</v>
+        <v>4271</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="2" t="n">
         <v>44306</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>51</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>22010</v>
+        <v>14167</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4280</v>
+        <v>4559</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+      <c r="A53" s="2" t="n">
         <v>44307</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>52</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>23077</v>
+        <v>14168</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4014</v>
+        <v>4280</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="2" t="n">
         <v>44308</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>53</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>24076</v>
+        <v>14169</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>3629</v>
+        <v>4014</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+      <c r="A55" s="2" t="n">
         <v>44309</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>54</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>24702</v>
+        <v>14170</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>2697</v>
+        <v>3629</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="2" t="n">
         <v>44310</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>55</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>25062</v>
+        <v>14171</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>2922</v>
+        <v>2697</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+      <c r="A57" s="2" t="n">
         <v>44311</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>56</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>25295</v>
+        <v>14172</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>3306</v>
+        <v>2922</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="2" t="n">
         <v>44312</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>57</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>24893</v>
+        <v>14173</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>3031</v>
+        <v>3306</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+      <c r="A59" s="2" t="n">
         <v>44313</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>58</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>24297</v>
+        <v>14174</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>2955</v>
+        <v>3031</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="2" t="n">
         <v>44314</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>59</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>23940</v>
+        <v>14175</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>2341</v>
+        <v>2955</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+      <c r="A61" s="2" t="n">
         <v>44315</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>60</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>23247</v>
+        <v>14176</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>2177</v>
+        <v>2341</v>
       </c>
       <c r="E61" s="3" t="n">
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
+      <c r="A62" s="2" t="n">
         <v>44316</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>61</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>22468</v>
+        <v>14177</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>1452</v>
+        <v>2177</v>
       </c>
       <c r="E62" s="3" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+      <c r="A63" s="2" t="n">
         <v>44317</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>62</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>21358</v>
+        <v>14178</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>1359</v>
+        <v>1452</v>
       </c>
       <c r="E63" s="3" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
+      <c r="A64" s="2" t="n">
         <v>44318</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>63</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>19593</v>
+        <v>14179</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>1739</v>
+        <v>1359</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
+      <c r="A65" s="2" t="n">
         <v>44319</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>64</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>19272</v>
+        <v>14180</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>1914</v>
+        <v>1739</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
+      <c r="A66" s="2" t="n">
         <v>44320</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>65</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>18707</v>
+        <v>14181</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>1752</v>
+        <v>1914</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
+      <c r="A67" s="2" t="n">
         <v>44321</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>66</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>18229</v>
+        <v>14182</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>1822</v>
+        <v>1752</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
+      <c r="A68" s="2" t="n">
         <v>44322</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>67</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>17453</v>
+        <v>14183</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>1682</v>
+        <v>1822</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
+      <c r="A69" s="2" t="n">
         <v>44323</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>68</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>17594</v>
+        <v>14184</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>1285</v>
+        <v>1682</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
+      <c r="A70" s="2" t="n">
         <v>44324</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>69</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>17988</v>
+        <v>14185</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>1386</v>
+        <v>1285</v>
       </c>
       <c r="E70" s="3" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
+      <c r="A71" s="2" t="n">
         <v>44325</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>70</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>18476</v>
+        <v>14186</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>1514</v>
+        <v>1386</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
+      <c r="A72" s="2" t="n">
         <v>44326</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>71</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>17362</v>
+        <v>14187</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>1230</v>
+        <v>1514</v>
       </c>
       <c r="E72" s="3" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
+      <c r="A73" s="2" t="n">
         <v>44327</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>72</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>16659</v>
+        <v>14188</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>1140</v>
+        <v>1230</v>
       </c>
       <c r="E73" s="3" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
+      <c r="A74" s="2" t="n">
         <v>44328</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>73</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>15490</v>
+        <v>14189</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>1290</v>
+        <v>1140</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="n">
+      <c r="A75" s="2" t="n">
         <v>44329</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>74</v>
       </c>
       <c r="C75" s="3" t="n">
-        <v>14179</v>
+        <v>14190</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>848</v>
+        <v>1290</v>
       </c>
       <c r="E75" s="3" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="n">
+      <c r="A76" s="2" t="n">
         <v>44330</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>75</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>12615</v>
+        <v>14191</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>261</v>
+        <v>848</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="n">
+      <c r="A77" s="2" t="n">
         <v>44331</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>76</v>
       </c>
       <c r="C77" s="3" t="n">
-        <v>10975</v>
+        <v>14192</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>363</v>
+        <v>261</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="n">
+      <c r="A78" s="2" t="n">
         <v>44332</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>77</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>10046</v>
+        <v>14193</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>698</v>
+        <v>363</v>
       </c>
       <c r="E78" s="3" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="n">
+      <c r="A79" s="2" t="n">
         <v>44333</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>78</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>10427</v>
+        <v>14194</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>1272</v>
+        <v>698</v>
       </c>
       <c r="E79" s="3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="n">
+      <c r="A80" s="2" t="n">
         <v>44334</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>79</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>11175</v>
+        <v>14195</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>1608</v>
+        <v>1272</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="n">
+      <c r="A81" s="2" t="n">
         <v>44335</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>12027</v>
+        <v>14196</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>1457</v>
+        <v>1608</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
+      <c r="A82" s="2" t="n">
         <v>44336</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>81</v>
       </c>
       <c r="C82" s="3" t="n">
-        <v>13521</v>
+        <v>14197</v>
       </c>
       <c r="D82" s="3" t="n">
-        <v>1504</v>
+        <v>1457</v>
       </c>
       <c r="E82" s="3" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
+      <c r="A83" s="2" t="n">
         <v>44337</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>82</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>14732</v>
+        <v>14198</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>1028</v>
+        <v>1504</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
+      <c r="A84" s="2" t="n">
         <v>44338</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>83</v>
       </c>
       <c r="C84" s="3" t="n">
-        <v>16128</v>
+        <v>14199</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>1354</v>
+        <v>1028</v>
       </c>
       <c r="E84" s="3" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="n">
+      <c r="A85" s="2" t="n">
         <v>44339</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>84</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>17176</v>
+        <v>14200</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>1441</v>
+        <v>1354</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="n">
+      <c r="A86" s="2" t="n">
         <v>44340</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>85</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>17143</v>
+        <v>14201</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>1675</v>
+        <v>1441</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="n">
+      <c r="A87" s="2" t="n">
         <v>44341</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>86</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>16558</v>
+        <v>14202</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>1497</v>
+        <v>1675</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="n">
+      <c r="A88" s="2" t="n">
         <v>44342</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>87</v>
       </c>
       <c r="C88" s="3" t="n">
-        <v>16129</v>
+        <v>14203</v>
       </c>
       <c r="D88" s="3" t="n">
-        <v>1292</v>
+        <v>1497</v>
       </c>
       <c r="E88" s="3" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="n">
+      <c r="A89" s="2" t="n">
         <v>44343</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>88</v>
       </c>
       <c r="C89" s="3" t="n">
-        <v>15602</v>
+        <v>14204</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>1358</v>
+        <v>1292</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="n">
+      <c r="A90" s="2" t="n">
         <v>44344</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>89</v>
       </c>
       <c r="C90" s="3" t="n">
-        <v>15739</v>
+        <v>14205</v>
       </c>
       <c r="D90" s="3" t="n">
-        <v>1043</v>
+        <v>1358</v>
       </c>
       <c r="E90" s="3" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
+      <c r="A91" s="2" t="n">
         <v>44345</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>90</v>
       </c>
       <c r="C91" s="3" t="n">
-        <v>15606</v>
+        <v>14206</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>1444</v>
+        <v>1043</v>
       </c>
       <c r="E91" s="3" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="n">
+      <c r="A92" s="2" t="n">
         <v>44346</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>91</v>
       </c>
       <c r="C92" s="3" t="n">
-        <v>15677</v>
+        <v>14207</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>1710</v>
+        <v>1444</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="n">
+      <c r="A93" s="2" t="n">
         <v>44347</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>92</v>
       </c>
       <c r="C93" s="3" t="n">
-        <v>15909</v>
+        <v>14208</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>1765</v>
+        <v>1710</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="n">
+      <c r="A94" s="2" t="n">
         <v>44348</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>93</v>
       </c>
       <c r="C94" s="3" t="n">
-        <v>16455</v>
+        <v>14209</v>
       </c>
       <c r="D94" s="3" t="n">
-        <v>1988</v>
+        <v>1765</v>
       </c>
       <c r="E94" s="3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="n">
+      <c r="A95" s="2" t="n">
         <v>44349</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>94</v>
       </c>
       <c r="C95" s="3" t="n">
-        <v>16532</v>
+        <v>14210</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>1687</v>
+        <v>1988</v>
       </c>
       <c r="E95" s="3" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="n">
+      <c r="A96" s="2" t="n">
         <v>44350</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>95</v>
       </c>
       <c r="C96" s="3" t="n">
-        <v>17039</v>
+        <v>14211</v>
       </c>
       <c r="D96" s="3" t="n">
-        <v>1887</v>
+        <v>1687</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="n">
+      <c r="A97" s="2" t="n">
         <v>44351</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>96</v>
       </c>
       <c r="C97" s="3" t="n">
-        <v>17029</v>
+        <v>14212</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>1447</v>
+        <v>1887</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="n">
+      <c r="A98" s="2" t="n">
         <v>44352</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>97</v>
       </c>
       <c r="C98" s="3" t="n">
-        <v>17220</v>
+        <v>14213</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>1676</v>
+        <v>1447</v>
       </c>
       <c r="E98" s="3" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
+      <c r="A99" s="2" t="n">
         <v>44353</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>98</v>
       </c>
       <c r="C99" s="3" t="n">
-        <v>17076</v>
+        <v>14214</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>1970</v>
+        <v>1676</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="n">
+      <c r="A100" s="2" t="n">
         <v>44354</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>99</v>
       </c>
       <c r="C100" s="3" t="n">
-        <v>17206</v>
+        <v>14215</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>2322</v>
+        <v>1970</v>
       </c>
       <c r="E100" s="3" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
+      <c r="A101" s="2" t="n">
         <v>44355</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C101" s="3" t="n">
-        <v>17050</v>
+        <v>14216</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>2537</v>
+        <v>2322</v>
       </c>
       <c r="E101" s="3" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="n">
+      <c r="A102" s="2" t="n">
         <v>44356</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>101</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>17404</v>
+        <v>14217</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>2576</v>
+        <v>2537</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="n">
+      <c r="A103" s="2" t="n">
         <v>44357</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>102</v>
       </c>
       <c r="C103" s="3" t="n">
-        <v>17458</v>
+        <v>14218</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>2454</v>
+        <v>2576</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="n">
+      <c r="A104" s="2" t="n">
         <v>44358</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>103</v>
       </c>
       <c r="C104" s="3" t="n">
-        <v>17241</v>
+        <v>14219</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>1637</v>
+        <v>2454</v>
       </c>
       <c r="E104" s="3" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="n">
+      <c r="A105" s="2" t="n">
         <v>44359</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>104</v>
       </c>
       <c r="C105" s="3" t="n">
-        <v>17689</v>
+        <v>14220</v>
       </c>
       <c r="D105" s="3" t="n">
-        <v>2436</v>
+        <v>1637</v>
       </c>
       <c r="E105" s="3" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="n">
+      <c r="A106" s="2" t="n">
         <v>44360</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>105</v>
       </c>
       <c r="C106" s="3" t="n">
-        <v>18179</v>
+        <v>14221</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>3050</v>
+        <v>2436</v>
       </c>
       <c r="E106" s="3" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="n">
+      <c r="A107" s="2" t="n">
         <v>44361</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>106</v>
       </c>
       <c r="C107" s="3" t="n">
-        <v>18765</v>
+        <v>14222</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>3319</v>
+        <v>3050</v>
       </c>
       <c r="E107" s="3" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="n">
+      <c r="A108" s="2" t="n">
         <v>44362</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>107</v>
       </c>
       <c r="C108" s="3" t="n">
-        <v>19428</v>
+        <v>14223</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>3956</v>
+        <v>3319</v>
       </c>
       <c r="E108" s="3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="n">
+      <c r="A109" s="2" t="n">
         <v>44363</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>108</v>
       </c>
       <c r="C109" s="3" t="n">
-        <v>20203</v>
+        <v>14224</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>3840</v>
+        <v>3956</v>
       </c>
       <c r="E109" s="3" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="n">
+      <c r="A110" s="2" t="n">
         <v>44364</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>109</v>
       </c>
       <c r="C110" s="3" t="n">
-        <v>20538</v>
+        <v>14225</v>
       </c>
       <c r="D110" s="3" t="n">
-        <v>3883</v>
+        <v>3840</v>
       </c>
       <c r="E110" s="3" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="n">
+      <c r="A111" s="2" t="n">
         <v>44365</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>110</v>
       </c>
       <c r="C111" s="3" t="n">
-        <v>21306</v>
+        <v>14226</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>3057</v>
+        <v>3883</v>
       </c>
       <c r="E111" s="3" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="n">
+      <c r="A112" s="2" t="n">
         <v>44366</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>111</v>
       </c>
       <c r="C112" s="3" t="n">
-        <v>21803</v>
+        <v>14227</v>
       </c>
       <c r="D112" s="3" t="n">
-        <v>3641</v>
+        <v>3057</v>
       </c>
       <c r="E112" s="3" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="n">
+      <c r="A113" s="2" t="n">
         <v>44367</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>112</v>
       </c>
       <c r="C113" s="3" t="n">
-        <v>22297</v>
+        <v>14228</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>4636</v>
+        <v>3641</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="n">
+      <c r="A114" s="2" t="n">
         <v>44368</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>113</v>
       </c>
       <c r="C114" s="3" t="n">
-        <v>22549</v>
+        <v>14229</v>
       </c>
       <c r="D114" s="3" t="n">
-        <v>4846</v>
+        <v>4636</v>
       </c>
       <c r="E114" s="3" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="n">
+      <c r="A115" s="2" t="n">
         <v>44369</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>114</v>
       </c>
       <c r="C115" s="3" t="n">
-        <v>23148</v>
+        <v>14230</v>
       </c>
       <c r="D115" s="3" t="n">
-        <v>5727</v>
+        <v>4846</v>
       </c>
       <c r="E115" s="3" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="n">
+      <c r="A116" s="2" t="n">
         <v>44370</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>115</v>
       </c>
       <c r="C116" s="3" t="n">
-        <v>23973</v>
+        <v>14231</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>6058</v>
+        <v>5727</v>
       </c>
       <c r="E116" s="3" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="n">
+      <c r="A117" s="2" t="n">
         <v>44371</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>116</v>
       </c>
       <c r="C117" s="3" t="n">
-        <v>24940</v>
+        <v>14232</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>5869</v>
+        <v>6058</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="n">
+      <c r="A118" s="2" t="n">
         <v>44372</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>117</v>
       </c>
       <c r="C118" s="3" t="n">
-        <v>26467</v>
+        <v>14233</v>
       </c>
       <c r="D118" s="3" t="n">
-        <v>4334</v>
+        <v>5869</v>
       </c>
       <c r="E118" s="3" t="n">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="n">
+      <c r="A119" s="2" t="n">
         <v>44373</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="C119" s="5" t="n">
-        <v>26777</v>
+      <c r="C119" s="3" t="n">
+        <v>14234</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>5268</v>
+        <v>4334</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="n">
+      <c r="A120" s="2" t="n">
         <v>44374</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="C120" s="5" t="n">
-        <v>28349</v>
+      <c r="C120" s="3" t="n">
+        <v>14235</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>8364</v>
+        <v>5268</v>
       </c>
       <c r="E120" s="3" t="n">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="n">
+      <c r="A121" s="2" t="n">
         <v>44375</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="C121" s="5" t="n">
-        <v>29342</v>
+      <c r="C121" s="3" t="n">
+        <v>14236</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>7666</v>
+        <v>8364</v>
       </c>
       <c r="E121" s="3" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="n">
+      <c r="A122" s="2" t="n">
         <v>44376</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="C122" s="5" t="n">
-        <v>30320</v>
+      <c r="C122" s="3" t="n">
+        <v>14237</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>8822</v>
+        <v>7666</v>
       </c>
       <c r="E122" s="3" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="n">
+      <c r="A123" s="2" t="n">
         <v>44377</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="C123" s="5" t="n">
-        <v>30558</v>
+      <c r="C123" s="3" t="n">
+        <v>14238</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>8301</v>
+        <v>8822</v>
       </c>
       <c r="E123" s="3" t="n">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="n">
+      <c r="A124" s="2" t="n">
         <v>44378</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="C124" s="5" t="n">
-        <v>31187</v>
+      <c r="C124" s="3" t="n">
+        <v>14239</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>8483</v>
+        <v>8301</v>
       </c>
       <c r="E124" s="3" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="n">
+      <c r="A125" s="2" t="n">
         <v>44379</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>124</v>
       </c>
-      <c r="C125" s="5" t="n">
-        <v>30478</v>
+      <c r="C125" s="3" t="n">
+        <v>14240</v>
       </c>
       <c r="D125" s="3" t="n">
-        <v>6214</v>
+        <v>8483</v>
       </c>
       <c r="E125" s="3" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="n">
+      <c r="A126" s="2" t="n">
         <v>44380</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="C126" s="5" t="n">
-        <v>31260</v>
+      <c r="C126" s="3" t="n">
+        <v>14241</v>
       </c>
       <c r="D126" s="3" t="n">
-        <v>8661</v>
+        <v>6214</v>
       </c>
       <c r="E126" s="3" t="n">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="n">
+      <c r="A127" s="2" t="n">
         <v>44381</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="C127" s="5" t="n">
-        <v>31109</v>
+      <c r="C127" s="3" t="n">
+        <v>14242</v>
       </c>
       <c r="D127" s="3" t="n">
-        <v>9964</v>
+        <v>8661</v>
       </c>
       <c r="E127" s="3" t="n">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="n">
+      <c r="A128" s="2" t="n">
         <v>44382</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="C128" s="5" t="n">
-        <v>31773</v>
+      <c r="C128" s="3" t="n">
+        <v>14243</v>
       </c>
       <c r="D128" s="3" t="n">
-        <v>11522</v>
+        <v>9964</v>
       </c>
       <c r="E128" s="3" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="n">
+      <c r="A129" s="2" t="n">
         <v>44383</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="C129" s="5" t="n">
-        <v>31850</v>
+      <c r="C129" s="3" t="n">
+        <v>14244</v>
       </c>
       <c r="D129" s="3" t="n">
-        <v>11162</v>
+        <v>11522</v>
       </c>
       <c r="E129" s="3" t="n">
-        <v>201</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="n">
+      <c r="A130" s="2" t="n">
         <v>44384</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="C130" s="5" t="n">
-        <v>32535</v>
+      <c r="C130" s="3" t="n">
+        <v>14245</v>
       </c>
       <c r="D130" s="3" t="n">
-        <v>11651</v>
+        <v>11162</v>
       </c>
       <c r="E130" s="3" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="n">
+      <c r="A131" s="2" t="n">
         <v>44385</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="C131" s="5" t="n">
-        <v>33182</v>
+      <c r="C131" s="3" t="n">
+        <v>14246</v>
       </c>
       <c r="D131" s="3" t="n">
-        <v>11324</v>
+        <v>11651</v>
       </c>
       <c r="E131" s="3" t="n">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="n">
+      <c r="A132" s="2" t="n">
         <v>44386</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="C132" s="5" t="n">
-        <v>30924</v>
+      <c r="C132" s="3" t="n">
+        <v>14247</v>
       </c>
       <c r="D132" s="3" t="n">
-        <v>8772</v>
+        <v>11324</v>
       </c>
       <c r="E132" s="3" t="n">
-        <v>185</v>
+        <v>212</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="n">
+      <c r="A133" s="2" t="n">
         <v>44387</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="C133" s="5" t="n">
-        <v>35372</v>
+      <c r="C133" s="3" t="n">
+        <v>14248</v>
       </c>
       <c r="D133" s="3" t="n">
-        <v>11874</v>
+        <v>8772</v>
       </c>
       <c r="E133" s="3" t="n">
-        <v>230</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4" t="n">
+      <c r="A134" s="2" t="n">
         <v>44388</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="C134" s="5" t="n">
-        <v>36810</v>
+      <c r="C134" s="3" t="n">
+        <v>14249</v>
       </c>
       <c r="D134" s="3" t="n">
-        <v>13768</v>
+        <v>11874</v>
       </c>
       <c r="E134" s="3" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="n">
+      <c r="A135" s="2" t="n">
         <v>44389</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="C135" s="5" t="n">
-        <v>37545</v>
+      <c r="C135" s="3" t="n">
+        <v>14250</v>
       </c>
       <c r="D135" s="3" t="n">
-        <v>12198</v>
+        <v>13768</v>
       </c>
       <c r="E135" s="3" t="n">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="4" t="n">
+      <c r="A136" s="2" t="n">
         <v>44390</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="C136" s="5" t="n">
-        <v>34223</v>
+      <c r="C136" s="3" t="n">
+        <v>14251</v>
       </c>
       <c r="D136" s="3" t="n">
-        <v>12383</v>
+        <v>12198</v>
       </c>
       <c r="E136" s="3" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="4" t="n">
+      <c r="A137" s="2" t="n">
         <v>44391</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="C137" s="5" t="n">
-        <v>35379</v>
+      <c r="C137" s="3" t="n">
+        <v>14252</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>12236</v>
+        <v>12383</v>
       </c>
       <c r="E137" s="3" t="n">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="4" t="n">
+      <c r="A138" s="2" t="n">
         <v>44392</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="C138" s="5" t="n">
-        <v>36145</v>
+      <c r="C138" s="3" t="n">
+        <v>14253</v>
       </c>
       <c r="D138" s="3" t="n">
-        <v>12148</v>
+        <v>12236</v>
       </c>
       <c r="E138" s="3" t="n">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="4" t="n">
+      <c r="A139" s="2" t="n">
         <v>44393</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>138</v>
       </c>
-      <c r="C139" s="5" t="n">
-        <v>36335</v>
+      <c r="C139" s="3" t="n">
+        <v>14254</v>
       </c>
       <c r="D139" s="3" t="n">
-        <v>8489</v>
+        <v>12148</v>
       </c>
       <c r="E139" s="3" t="n">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="4" t="n">
+      <c r="A140" s="2" t="n">
         <v>44394</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="C140" s="5" t="n">
-        <v>36305</v>
+      <c r="C140" s="3" t="n">
+        <v>14255</v>
       </c>
       <c r="D140" s="3" t="n">
-        <v>11578</v>
+        <v>8489</v>
       </c>
       <c r="E140" s="3" t="n">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="4" t="n">
+      <c r="A141" s="2" t="n">
         <v>44395</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="C141" s="5" t="n">
-        <v>35696</v>
+      <c r="C141" s="3" t="n">
+        <v>14256</v>
       </c>
       <c r="D141" s="3" t="n">
-        <v>13321</v>
+        <v>11578</v>
       </c>
       <c r="E141" s="3" t="n">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="4" t="n">
+      <c r="A142" s="2" t="n">
         <v>44396</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="C142" s="5" t="n">
-        <v>36158</v>
+      <c r="C142" s="3" t="n">
+        <v>14257</v>
       </c>
       <c r="D142" s="3" t="n">
-        <v>11579</v>
+        <v>13321</v>
       </c>
       <c r="E142" s="3" t="n">
-        <v>200</v>
+        <v>231</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="4" t="n">
+      <c r="A143" s="2" t="n">
         <v>44397</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>142</v>
       </c>
-      <c r="C143" s="5" t="n">
-        <v>40820</v>
+      <c r="C143" s="3" t="n">
+        <v>14258</v>
       </c>
       <c r="D143" s="3" t="n">
-        <v>7614</v>
+        <v>11579</v>
       </c>
       <c r="E143" s="3" t="n">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="4" t="n">
+      <c r="A144" s="2" t="n">
         <v>44398</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="C144" s="5" t="n">
-        <v>40044</v>
+      <c r="C144" s="3" t="n">
+        <v>14259</v>
       </c>
       <c r="D144" s="3" t="n">
-        <v>3697</v>
+        <v>7614</v>
       </c>
       <c r="E144" s="3" t="n">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4" t="n">
+      <c r="A145" s="2" t="n">
         <v>44399</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>144</v>
       </c>
-      <c r="C145" s="5" t="n">
-        <v>36979</v>
+      <c r="C145" s="3" t="n">
+        <v>14260</v>
       </c>
       <c r="D145" s="3" t="n">
-        <v>6364</v>
+        <v>3697</v>
       </c>
       <c r="E145" s="3" t="n">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4" t="n">
+      <c r="A146" s="2" t="n">
         <v>44400</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="C146" s="5" t="n">
-        <v>35781</v>
+      <c r="C146" s="3" t="n">
+        <v>14261</v>
       </c>
       <c r="D146" s="3" t="n">
-        <v>6780</v>
+        <v>6364</v>
       </c>
       <c r="E146" s="3" t="n">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4" t="n">
+      <c r="A147" s="2" t="n">
         <v>44401</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="C147" s="5" t="n">
-        <v>33070</v>
+      <c r="C147" s="3" t="n">
+        <v>14262</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>11291</v>
+        <v>6780</v>
       </c>
       <c r="E147" s="3" t="n">
-        <v>228</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="4" t="n">
+      <c r="A148" s="2" t="n">
         <v>44402</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="C148" s="5" t="n">
-        <v>32753</v>
+      <c r="C148" s="3" t="n">
+        <v>14263</v>
       </c>
       <c r="D148" s="3" t="n">
-        <v>15192</v>
+        <v>11291</v>
       </c>
       <c r="E148" s="3" t="n">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="4" t="n">
+      <c r="A149" s="2" t="n">
         <v>44403</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>148</v>
       </c>
-      <c r="C149" s="5" t="n">
-        <v>33601</v>
+      <c r="C149" s="3" t="n">
+        <v>14264</v>
       </c>
       <c r="D149" s="3" t="n">
-        <v>14925</v>
+        <v>15192</v>
       </c>
       <c r="E149" s="3" t="n">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="4" t="n">
+      <c r="A150" s="2" t="n">
         <v>44404</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="C150" s="5" t="n">
-        <v>34668</v>
+      <c r="C150" s="3" t="n">
+        <v>14265</v>
       </c>
       <c r="D150" s="3" t="n">
-        <v>16230</v>
+        <v>14925</v>
       </c>
       <c r="E150" s="3" t="n">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="4" t="n">
+      <c r="A151" s="2" t="n">
         <v>44405</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="C151" s="5" t="n">
-        <v>36492</v>
+      <c r="C151" s="3" t="n">
+        <v>14266</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>15271</v>
+        <v>16230</v>
       </c>
       <c r="E151" s="3" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="4" t="n">
+      <c r="A152" s="2" t="n">
         <v>44406</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C152" s="5" t="n">
-        <v>40000</v>
+      <c r="C152" s="3" t="n">
+        <v>14267</v>
       </c>
       <c r="D152" s="3" t="n">
-        <v>13862</v>
+        <v>15271</v>
       </c>
       <c r="E152" s="3" t="n">
-        <v>212</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="4" t="n">
+      <c r="A153" s="2" t="n">
         <v>44407</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>152</v>
       </c>
-      <c r="C153" s="6" t="n">
-        <v>33899</v>
+      <c r="C153" s="3" t="n">
+        <v>14268</v>
       </c>
       <c r="D153" s="3" t="n">
-        <v>9369</v>
+        <v>13862</v>
       </c>
       <c r="E153" s="3" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="4" t="n">
+      <c r="A154" s="2" t="n">
         <v>44408</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>153</v>
       </c>
-      <c r="C154" s="5" t="n">
-        <v>41115</v>
+      <c r="C154" s="3" t="n">
+        <v>14269</v>
       </c>
       <c r="D154" s="3" t="n">
-        <v>14844</v>
+        <v>9369</v>
       </c>
       <c r="E154" s="3" t="n">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="4" t="n">
+      <c r="A155" s="2" t="n">
         <v>44409</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C155" s="5" t="n">
-        <v>42831</v>
+      <c r="C155" s="3" t="n">
+        <v>14270</v>
       </c>
       <c r="D155" s="3" t="n">
-        <v>15989</v>
+        <v>14844</v>
       </c>
       <c r="E155" s="3" t="n">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="4" t="n">
+      <c r="A156" s="2" t="n">
         <v>44410</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="C156" s="5" t="n">
-        <v>43189</v>
+      <c r="C156" s="3" t="n">
+        <v>14271</v>
       </c>
       <c r="D156" s="3" t="n">
-        <v>15776</v>
+        <v>15989</v>
       </c>
       <c r="E156" s="3" t="n">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="4" t="n">
+      <c r="A157" s="2" t="n">
         <v>44411</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="C157" s="5" t="n">
-        <v>42766</v>
+      <c r="C157" s="3" t="n">
+        <v>14272</v>
       </c>
       <c r="D157" s="3" t="n">
-        <v>13817</v>
+        <v>15776</v>
       </c>
       <c r="E157" s="3" t="n">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="4" t="n">
+      <c r="A158" s="2" t="n">
         <v>44412</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="C158" s="5" t="n">
-        <v>42010</v>
+      <c r="C158" s="3" t="n">
+        <v>14273</v>
       </c>
       <c r="D158" s="3" t="n">
-        <v>12744</v>
+        <v>13817</v>
       </c>
       <c r="E158" s="3" t="n">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="4" t="n">
+      <c r="A159" s="2" t="n">
         <v>44413</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>158</v>
       </c>
-      <c r="C159" s="5" t="n">
-        <v>42289</v>
+      <c r="C159" s="3" t="n">
+        <v>14274</v>
       </c>
       <c r="D159" s="3" t="n">
-        <v>12606</v>
+        <v>12744</v>
       </c>
       <c r="E159" s="3" t="n">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4" t="n">
+      <c r="A160" s="2" t="n">
         <v>44414</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="C160" s="5" t="n">
-        <v>43282</v>
+      <c r="C160" s="3" t="n">
+        <v>14275</v>
       </c>
       <c r="D160" s="3" t="n">
-        <v>8136</v>
+        <v>12606</v>
       </c>
       <c r="E160" s="3" t="n">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4" t="n">
+      <c r="A161" s="2" t="n">
         <v>44415</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="C161" s="5" t="n">
-        <v>45745</v>
+      <c r="C161" s="3" t="n">
+        <v>14276</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>10299</v>
+        <v>8136</v>
       </c>
       <c r="E161" s="3" t="n">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="4" t="n">
+      <c r="A162" s="2" t="n">
         <v>44416</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="C162" s="5" t="n">
-        <v>45413</v>
+      <c r="C162" s="3" t="n">
+        <v>14277</v>
       </c>
       <c r="D162" s="3" t="n">
-        <v>11663</v>
+        <v>10299</v>
       </c>
       <c r="E162" s="3" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="4" t="n">
+      <c r="A163" s="2" t="n">
         <v>44417</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="C163" s="5" t="n">
-        <v>44550</v>
+      <c r="C163" s="3" t="n">
+        <v>14278</v>
       </c>
       <c r="D163" s="3" t="n">
-        <v>11164</v>
+        <v>11663</v>
       </c>
       <c r="E163" s="3" t="n">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="4" t="n">
+      <c r="A164" s="2" t="n">
         <v>44418</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>163</v>
       </c>
-      <c r="C164" s="5" t="n">
-        <v>43824</v>
+      <c r="C164" s="3" t="n">
+        <v>14279</v>
       </c>
       <c r="D164" s="3" t="n">
-        <v>10420</v>
+        <v>11164</v>
       </c>
       <c r="E164" s="3" t="n">
-        <v>237</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="4" t="n">
+      <c r="A165" s="2" t="n">
         <v>44419</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="C165" s="5" t="n">
-        <v>43550</v>
+      <c r="C165" s="3" t="n">
+        <v>14280</v>
       </c>
       <c r="D165" s="3" t="n">
-        <v>10426</v>
+        <v>10420</v>
       </c>
       <c r="E165" s="3" t="n">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4" t="n">
+      <c r="A166" s="2" t="n">
         <v>44420</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>165</v>
       </c>
-      <c r="C166" s="5" t="n">
-        <v>43276</v>
+      <c r="C166" s="3" t="n">
+        <v>14281</v>
       </c>
       <c r="D166" s="3" t="n">
-        <v>8465</v>
+        <v>10426</v>
       </c>
       <c r="E166" s="3" t="n">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="4" t="n">
+      <c r="A167" s="2" t="n">
         <v>44421</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="C167" s="5" t="n">
-        <v>45185</v>
+      <c r="C167" s="3" t="n">
+        <v>14282</v>
       </c>
       <c r="D167" s="3" t="n">
-        <v>6885</v>
+        <v>8465</v>
       </c>
       <c r="E167" s="3" t="n">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="4" t="n">
+      <c r="A168" s="2" t="n">
         <v>44422</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="C168" s="5" t="n">
-        <v>43899</v>
+      <c r="C168" s="3" t="n">
+        <v>14283</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>6684</v>
+        <v>6885</v>
       </c>
       <c r="E168" s="3" t="n">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="4" t="n">
+      <c r="A169" s="2" t="n">
         <v>44423</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="C169" s="5" t="n">
-        <v>41872</v>
+      <c r="C169" s="3" t="n">
+        <v>14284</v>
       </c>
       <c r="D169" s="3" t="n">
-        <v>6959</v>
+        <v>6684</v>
       </c>
       <c r="E169" s="3" t="n">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="n">
+      <c r="A170" s="2" t="n">
         <v>44424</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>169</v>
       </c>
       <c r="C170" s="3" t="n">
-        <v>39814</v>
+        <v>14285</v>
       </c>
       <c r="D170" s="3" t="n">
-        <v>7535</v>
+        <v>6959</v>
       </c>
       <c r="E170" s="3" t="n">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4" t="n">
+      <c r="A171" s="2" t="n">
         <v>44425</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="C171" s="5" t="n">
-        <v>39078</v>
+      <c r="C171" s="3" t="n">
+        <v>14286</v>
       </c>
       <c r="D171" s="3" t="n">
-        <v>7248</v>
+        <v>7535</v>
       </c>
       <c r="E171" s="3" t="n">
-        <v>172</v>
+        <v>198</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="4" t="n">
+      <c r="A172" s="2" t="n">
         <v>44426</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="C172" s="5" t="n">
-        <v>38497</v>
+      <c r="C172" s="3" t="n">
+        <v>14287</v>
       </c>
       <c r="D172" s="3" t="n">
-        <v>6566</v>
+        <v>7248</v>
       </c>
       <c r="E172" s="3" t="n">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="4" t="n">
+      <c r="A173" s="2" t="n">
         <v>44427</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>172</v>
       </c>
-      <c r="C173" s="5" t="n">
-        <v>37916</v>
+      <c r="C173" s="3" t="n">
+        <v>14288</v>
       </c>
       <c r="D173" s="3" t="n">
-        <v>5993</v>
+        <v>6566</v>
       </c>
       <c r="E173" s="3" t="n">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="4" t="n">
+      <c r="A174" s="2" t="n">
         <v>44428</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="C174" s="5" t="n">
-        <v>37336</v>
+      <c r="C174" s="3" t="n">
+        <v>14289</v>
       </c>
       <c r="D174" s="3" t="n">
-        <v>3991</v>
+        <v>5993</v>
       </c>
       <c r="E174" s="3" t="n">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="4" t="n">
+      <c r="A175" s="2" t="n">
         <v>44429</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="C175" s="5" t="n">
-        <v>37148</v>
+      <c r="C175" s="3" t="n">
+        <v>14290</v>
       </c>
       <c r="D175" s="3" t="n">
-        <v>4804</v>
+        <v>3991</v>
       </c>
       <c r="E175" s="3" t="n">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="4" t="n">
+      <c r="A176" s="2" t="n">
         <v>44430</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="C176" s="5" t="n">
-        <v>37688</v>
+      <c r="C176" s="3" t="n">
+        <v>14291</v>
       </c>
       <c r="D176" s="3" t="n">
-        <v>5717</v>
+        <v>4804</v>
       </c>
       <c r="E176" s="3" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="4" t="n">
+      <c r="A177" s="2" t="n">
         <v>44431</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="C177" s="5" t="n">
-        <v>37929</v>
+      <c r="C177" s="3" t="n">
+        <v>14292</v>
       </c>
       <c r="D177" s="3" t="n">
-        <v>5249</v>
+        <v>5717</v>
       </c>
       <c r="E177" s="3" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="4" t="n">
+      <c r="A178" s="2" t="n">
         <v>44432</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>177</v>
       </c>
-      <c r="C178" s="5" t="n">
-        <v>37124</v>
+      <c r="C178" s="3" t="n">
+        <v>14293</v>
       </c>
       <c r="D178" s="3" t="n">
-        <v>4966</v>
+        <v>5249</v>
       </c>
       <c r="E178" s="3" t="n">
         <v>114</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="4" t="n">
+      <c r="A179" s="2" t="n">
         <v>44433</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="C179" s="5" t="n">
-        <v>36138</v>
+      <c r="C179" s="3" t="n">
+        <v>14294</v>
       </c>
       <c r="D179" s="3" t="n">
-        <v>4698</v>
+        <v>4966</v>
       </c>
       <c r="E179" s="3" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="4" t="n">
+      <c r="A180" s="2" t="n">
         <v>44434</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="C180" s="5" t="n">
-        <v>35152</v>
+      <c r="C180" s="3" t="n">
+        <v>14295</v>
       </c>
       <c r="D180" s="3" t="n">
-        <v>3525</v>
+        <v>4698</v>
       </c>
       <c r="E180" s="3" t="n">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="4" t="n">
+      <c r="A181" s="2" t="n">
         <v>44435</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="C181" s="5" t="n">
-        <v>32882</v>
+      <c r="C181" s="3" t="n">
+        <v>14296</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>3436</v>
+        <v>3525</v>
       </c>
       <c r="E181" s="3" t="n">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="4" t="n">
+      <c r="A182" s="2" t="n">
         <v>44436</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="C182" s="5" t="n">
-        <v>32344</v>
+      <c r="C182" s="3" t="n">
+        <v>14297</v>
       </c>
       <c r="D182" s="3" t="n">
-        <v>3948</v>
+        <v>3436</v>
       </c>
       <c r="E182" s="3" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4" t="n">
+      <c r="A183" s="2" t="n">
         <v>44437</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>182</v>
       </c>
-      <c r="C183" s="5" t="n">
-        <v>31077</v>
+      <c r="C183" s="3" t="n">
+        <v>14298</v>
       </c>
       <c r="D183" s="3" t="n">
-        <v>3724</v>
+        <v>3948</v>
       </c>
       <c r="E183" s="3" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="4" t="n">
+      <c r="A184" s="2" t="n">
         <v>44438</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="C184" s="5" t="n">
-        <v>30133</v>
+      <c r="C184" s="3" t="n">
+        <v>14299</v>
       </c>
       <c r="D184" s="3" t="n">
-        <v>3357</v>
+        <v>3724</v>
       </c>
       <c r="E184" s="3" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4" t="n">
+      <c r="A185" s="2" t="n">
         <v>44439</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C185" s="5" t="n">
-        <v>29655</v>
+      <c r="C185" s="3" t="n">
+        <v>14300</v>
       </c>
       <c r="D185" s="3" t="n">
-        <v>3062</v>
+        <v>3357</v>
       </c>
       <c r="E185" s="3" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="4" t="n">
+      <c r="A186" s="2" t="n">
         <v>44440</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="C186" s="5" t="n">
-        <v>29500</v>
+      <c r="C186" s="3" t="n">
+        <v>14301</v>
       </c>
       <c r="D186" s="3" t="n">
-        <v>3436</v>
+        <v>3062</v>
       </c>
       <c r="E186" s="3" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="4" t="n">
+      <c r="A187" s="2" t="n">
         <v>44441</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>186</v>
       </c>
       <c r="C187" s="3" t="n">
-        <v>283200</v>
+        <v>14302</v>
       </c>
       <c r="D187" s="3" t="n">
-        <v>3167</v>
+        <v>3436</v>
       </c>
       <c r="E187" s="3" t="n">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="4" t="n">
+      <c r="A188" s="2" t="n">
         <v>44442</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="C188" s="5" t="n">
-        <v>25242</v>
+      <c r="C188" s="3" t="n">
+        <v>14303</v>
       </c>
       <c r="D188" s="3" t="n">
-        <v>1743</v>
+        <v>3167</v>
       </c>
       <c r="E188" s="3" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="4" t="n">
+      <c r="A189" s="2" t="n">
         <v>44443</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="C189" s="5" t="n">
-        <v>24848</v>
+      <c r="C189" s="3" t="n">
+        <v>14304</v>
       </c>
       <c r="D189" s="3" t="n">
-        <v>2430</v>
+        <v>1743</v>
       </c>
       <c r="E189" s="3" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="4" t="n">
+      <c r="A190" s="2" t="n">
         <v>44444</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="C190" s="5" t="n">
-        <v>24802</v>
+      <c r="C190" s="3" t="n">
+        <v>14305</v>
       </c>
       <c r="D190" s="3" t="n">
-        <v>2710</v>
+        <v>2430</v>
       </c>
       <c r="E190" s="3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="4" t="n">
+      <c r="A191" s="2" t="n">
         <v>44445</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="C191" s="5" t="n">
-        <v>24678</v>
+      <c r="C191" s="3" t="n">
+        <v>14306</v>
       </c>
       <c r="D191" s="3" t="n">
-        <v>2639</v>
+        <v>2710</v>
       </c>
       <c r="E191" s="3" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="4" t="n">
+      <c r="A192" s="2" t="n">
         <v>44446</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="C192" s="5" t="n">
-        <v>24241</v>
+      <c r="C192" s="3" t="n">
+        <v>14307</v>
       </c>
       <c r="D192" s="3" t="n">
-        <v>2498</v>
+        <v>2639</v>
       </c>
       <c r="E192" s="3" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="4" t="n">
+      <c r="A193" s="2" t="n">
         <v>44447</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="C193" s="5" t="n">
-        <v>23743</v>
+      <c r="C193" s="3" t="n">
+        <v>14308</v>
       </c>
       <c r="D193" s="3" t="n">
-        <v>2588</v>
+        <v>2498</v>
       </c>
       <c r="E193" s="3" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="4" t="n">
+      <c r="A194" s="2" t="n">
         <v>44448</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>193</v>
       </c>
-      <c r="C194" s="5" t="n">
-        <v>25861</v>
+      <c r="C194" s="3" t="n">
+        <v>14309</v>
       </c>
       <c r="D194" s="3" t="n">
-        <v>2325</v>
+        <v>2588</v>
       </c>
       <c r="E194" s="3" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="4" t="n">
+      <c r="A195" s="2" t="n">
         <v>44449</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="C195" s="5" t="n">
-        <v>27598</v>
+      <c r="C195" s="3" t="n">
+        <v>14310</v>
       </c>
       <c r="D195" s="3" t="n">
-        <v>1327</v>
+        <v>2325</v>
       </c>
       <c r="E195" s="3" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="4" t="n">
+      <c r="A196" s="2" t="n">
         <v>44450</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>195</v>
       </c>
-      <c r="C196" s="5" t="n">
-        <v>27585</v>
+      <c r="C196" s="3" t="n">
+        <v>14311</v>
       </c>
       <c r="D196" s="3" t="n">
-        <v>1871</v>
+        <v>1327</v>
       </c>
       <c r="E196" s="3" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="4" t="n">
+      <c r="A197" s="2" t="n">
         <v>44451</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="C197" s="5" t="n">
-        <v>27270</v>
+      <c r="C197" s="3" t="n">
+        <v>14312</v>
       </c>
       <c r="D197" s="3" t="n">
-        <v>1953</v>
+        <v>1871</v>
       </c>
       <c r="E197" s="3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="4" t="n">
+      <c r="A198" s="2" t="n">
         <v>44452</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="C198" s="5" t="n">
-        <v>27911</v>
+      <c r="C198" s="3" t="n">
+        <v>14313</v>
       </c>
       <c r="D198" s="3" t="n">
-        <v>2074</v>
+        <v>1953</v>
       </c>
       <c r="E198" s="3" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="4" t="n">
+      <c r="A199" s="2" t="n">
         <v>44453</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>198</v>
       </c>
-      <c r="C199" s="5" t="n">
-        <v>28109</v>
+      <c r="C199" s="3" t="n">
+        <v>14314</v>
       </c>
       <c r="D199" s="3" t="n">
-        <v>1901</v>
+        <v>2074</v>
       </c>
       <c r="E199" s="3" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="4" t="n">
+      <c r="A200" s="2" t="n">
         <v>44454</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="C200" s="5" t="n">
-        <v>27996</v>
+      <c r="C200" s="3" t="n">
+        <v>14315</v>
       </c>
       <c r="D200" s="3" t="n">
-        <v>1862</v>
+        <v>1901</v>
       </c>
       <c r="E200" s="3" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="4" t="n">
+      <c r="A201" s="2" t="n">
         <v>44455</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="C201" s="5" t="n">
-        <v>28206</v>
+      <c r="C201" s="3" t="n">
+        <v>14316</v>
       </c>
       <c r="D201" s="3" t="n">
-        <v>1907</v>
+        <v>1862</v>
       </c>
       <c r="E201" s="3" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="4" t="n">
+      <c r="A202" s="2" t="n">
         <v>44456</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="C202" s="5" t="n">
-        <v>27176</v>
+      <c r="C202" s="3" t="n">
+        <v>14317</v>
       </c>
       <c r="D202" s="3" t="n">
+        <v>1907</v>
+      </c>
+      <c r="E202" s="3" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="n">
+        <v>44457</v>
+      </c>
+      <c r="B203" s="0" t="n">
+        <v>202</v>
+      </c>
+      <c r="C203" s="3" t="n">
+        <v>14318</v>
+      </c>
+      <c r="D203" s="3" t="n">
         <v>1190</v>
       </c>
-      <c r="E202" s="3" t="n">
+      <c r="E203" s="3" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="4"/>
-      <c r="C203" s="3"/>
-    </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="7"/>
-      <c r="C204" s="3"/>
+      <c r="A204" s="2" t="n">
+        <v>44458</v>
+      </c>
+      <c r="B204" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="C204" s="3" t="n">
+        <v>14319</v>
+      </c>
+      <c r="D204" s="3" t="n">
+        <v>1743</v>
+      </c>
+      <c r="E204" s="3" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="7"/>
+      <c r="A205" s="2" t="n">
+        <v>44459</v>
+      </c>
+      <c r="B205" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="C205" s="3" t="n">
+        <v>14320</v>
+      </c>
+      <c r="D205" s="3" t="n">
+        <v>1709</v>
+      </c>
+      <c r="E205" s="3" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
+      <c r="A206" s="2" t="n">
+        <v>44460</v>
+      </c>
+      <c r="B206" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="C206" s="3" t="n">
+        <v>14321</v>
+      </c>
+      <c r="D206" s="3" t="n">
+        <v>1615</v>
+      </c>
+      <c r="E206" s="3" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="4"/>
-      <c r="B207" s="4"/>
+      <c r="A207" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="B207" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="C207" s="3" t="n">
+        <v>14322</v>
+      </c>
+      <c r="D207" s="3" t="n">
+        <v>1536</v>
+      </c>
+      <c r="E207" s="3" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4"/>
-    </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
-    </row>
+      <c r="A208" s="2" t="n">
+        <v>44462</v>
+      </c>
+      <c r="B208" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="C208" s="3" t="n">
+        <v>14323</v>
+      </c>
+      <c r="D208" s="3" t="n">
+        <v>1452</v>
+      </c>
+      <c r="E208" s="3" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="n">
+        <v>44463</v>
+      </c>
+      <c r="B209" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="C209" s="3" t="n">
+        <v>14324</v>
+      </c>
+      <c r="D209" s="3" t="n">
+        <v>1351</v>
+      </c>
+      <c r="E209" s="3" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="n">
+        <v>44464</v>
+      </c>
+      <c r="B210" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="C210" s="3" t="n">
+        <v>14325</v>
+      </c>
+      <c r="D210" s="3" t="n">
+        <v>1285</v>
+      </c>
+      <c r="E210" s="3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="n">
+        <v>44465</v>
+      </c>
+      <c r="B211" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="C211" s="3" t="n">
+        <v>14326</v>
+      </c>
+      <c r="D211" s="3" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E211" s="3" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="C212" s="3" t="n">
+        <v>14327</v>
+      </c>
+      <c r="D212" s="3" t="n">
+        <v>1199</v>
+      </c>
+      <c r="E212" s="3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="n">
+        <v>44467</v>
+      </c>
+      <c r="B213" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="C213" s="3" t="n">
+        <v>14328</v>
+      </c>
+      <c r="D213" s="3" t="n">
+        <v>1146</v>
+      </c>
+      <c r="E213" s="3" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="B214" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="C214" s="3" t="n">
+        <v>14329</v>
+      </c>
+      <c r="D214" s="3" t="n">
+        <v>1120</v>
+      </c>
+      <c r="E214" s="3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B215" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="C215" s="3" t="n">
+        <v>14330</v>
+      </c>
+      <c r="D215" s="3" t="n">
+        <v>1078</v>
+      </c>
+      <c r="E215" s="3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B216" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="C216" s="3" t="n">
+        <v>14331</v>
+      </c>
+      <c r="D216" s="3" t="n">
+        <v>1135</v>
+      </c>
+      <c r="E216" s="3" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="n">
+        <v>44471</v>
+      </c>
+      <c r="B217" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="C217" s="3" t="n">
+        <v>14332</v>
+      </c>
+      <c r="D217" s="3" t="n">
+        <v>993</v>
+      </c>
+      <c r="E217" s="3" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B218" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="C218" s="3" t="n">
+        <v>14333</v>
+      </c>
+      <c r="D218" s="3" t="n">
+        <v>941</v>
+      </c>
+      <c r="E218" s="3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="n">
+        <v>44473</v>
+      </c>
+      <c r="B219" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="C219" s="3" t="n">
+        <v>14334</v>
+      </c>
+      <c r="D219" s="3" t="n">
+        <v>884</v>
+      </c>
+      <c r="E219" s="3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="n">
+        <v>44474</v>
+      </c>
+      <c r="B220" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="C220" s="3" t="n">
+        <v>14335</v>
+      </c>
+      <c r="D220" s="3" t="n">
+        <v>797</v>
+      </c>
+      <c r="E220" s="3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="B221" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="C221" s="3" t="n">
+        <v>14336</v>
+      </c>
+      <c r="D221" s="3" t="n">
+        <v>738</v>
+      </c>
+      <c r="E221" s="3" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="n">
+        <v>44476</v>
+      </c>
+      <c r="B222" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="C222" s="3" t="n">
+        <v>14337</v>
+      </c>
+      <c r="D222" s="3" t="n">
+        <v>707</v>
+      </c>
+      <c r="E222" s="3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="n">
+        <v>44477</v>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="C223" s="3" t="n">
+        <v>14338</v>
+      </c>
+      <c r="D223" s="3" t="n">
+        <v>674</v>
+      </c>
+      <c r="E223" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="n">
+        <v>44478</v>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="C224" s="3" t="n">
+        <v>14339</v>
+      </c>
+      <c r="D224" s="3" t="n">
+        <v>639</v>
+      </c>
+      <c r="E224" s="3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="n">
+        <v>44479</v>
+      </c>
+      <c r="B225" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="C225" s="3" t="n">
+        <v>14340</v>
+      </c>
+      <c r="D225" s="3" t="n">
+        <v>622</v>
+      </c>
+      <c r="E225" s="3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="n">
+        <v>44480</v>
+      </c>
+      <c r="B226" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="C226" s="3" t="n">
+        <v>14341</v>
+      </c>
+      <c r="D226" s="3" t="n">
+        <v>605</v>
+      </c>
+      <c r="E226" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="n">
+        <v>44481</v>
+      </c>
+      <c r="B227" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="C227" s="3" t="n">
+        <v>14342</v>
+      </c>
+      <c r="D227" s="3" t="n">
+        <v>570</v>
+      </c>
+      <c r="E227" s="3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="B228" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="C228" s="3" t="n">
+        <v>14343</v>
+      </c>
+      <c r="D228" s="3" t="n">
+        <v>553</v>
+      </c>
+      <c r="E228" s="3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="n">
+        <v>44483</v>
+      </c>
+      <c r="B229" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="C229" s="3" t="n">
+        <v>14344</v>
+      </c>
+      <c r="D229" s="3" t="n">
+        <v>518</v>
+      </c>
+      <c r="E229" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="C230" s="3" t="n">
+        <v>14345</v>
+      </c>
+      <c r="D230" s="3" t="n">
+        <v>484</v>
+      </c>
+      <c r="E230" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="n">
+        <v>44485</v>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="C231" s="3" t="n">
+        <v>14346</v>
+      </c>
+      <c r="D231" s="3" t="n">
+        <v>467</v>
+      </c>
+      <c r="E231" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="n">
+        <v>44486</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="C232" s="3" t="n">
+        <v>14347</v>
+      </c>
+      <c r="D232" s="3" t="n">
+        <v>449</v>
+      </c>
+      <c r="E232" s="3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="n">
+        <v>44487</v>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="C233" s="3" t="n">
+        <v>14348</v>
+      </c>
+      <c r="D233" s="3" t="n">
+        <v>415</v>
+      </c>
+      <c r="E233" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="n">
+        <v>44488</v>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="C234" s="3" t="n">
+        <v>14349</v>
+      </c>
+      <c r="D234" s="3" t="n">
+        <v>398</v>
+      </c>
+      <c r="E234" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="C235" s="3" t="n">
+        <v>14350</v>
+      </c>
+      <c r="D235" s="3" t="n">
+        <v>380</v>
+      </c>
+      <c r="E235" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="n">
+        <v>44490</v>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="C236" s="3" t="n">
+        <v>14351</v>
+      </c>
+      <c r="D236" s="3" t="n">
+        <v>346</v>
+      </c>
+      <c r="E236" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="C237" s="3" t="n">
+        <v>14352</v>
+      </c>
+      <c r="D237" s="3" t="n">
+        <v>328</v>
+      </c>
+      <c r="E237" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="n">
+        <v>44492</v>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="C238" s="3" t="n">
+        <v>14353</v>
+      </c>
+      <c r="D238" s="3" t="n">
+        <v>328</v>
+      </c>
+      <c r="E238" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="C239" s="3" t="n">
+        <v>14354</v>
+      </c>
+      <c r="D239" s="3" t="n">
+        <v>311</v>
+      </c>
+      <c r="E239" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="n">
+        <v>44494</v>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="C240" s="3" t="n">
+        <v>14355</v>
+      </c>
+      <c r="D240" s="3" t="n">
+        <v>311</v>
+      </c>
+      <c r="E240" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="n">
+        <v>44495</v>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="C241" s="3" t="n">
+        <v>14356</v>
+      </c>
+      <c r="D241" s="3" t="n">
+        <v>277</v>
+      </c>
+      <c r="E241" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>241</v>
+      </c>
+      <c r="C242" s="3" t="n">
+        <v>14357</v>
+      </c>
+      <c r="D242" s="3" t="n">
+        <v>277</v>
+      </c>
+      <c r="E242" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="n">
+        <v>44497</v>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="C243" s="3" t="n">
+        <v>14358</v>
+      </c>
+      <c r="D243" s="3" t="n">
+        <v>294</v>
+      </c>
+      <c r="E243" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B244" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="C244" s="3" t="n">
+        <v>14359</v>
+      </c>
+      <c r="D244" s="3" t="n">
+        <v>305</v>
+      </c>
+      <c r="E244" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="2" t="n">
+        <v>44499</v>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>244</v>
+      </c>
+      <c r="C245" s="3" t="n">
+        <v>14360</v>
+      </c>
+      <c r="D245" s="3" t="n">
+        <v>166</v>
+      </c>
+      <c r="E245" s="3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="2" t="n">
+        <v>44500</v>
+      </c>
+      <c r="B246" s="0" t="n">
+        <v>245</v>
+      </c>
+      <c r="C246" s="3" t="n">
+        <v>14361</v>
+      </c>
+      <c r="D246" s="3" t="n">
+        <v>211</v>
+      </c>
+      <c r="E246" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
